--- a/data/trans_orig/IP06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365BBE12-280B-4D8E-B2F6-A0AB5512F357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E10E442-D6F4-4A13-B34C-2D11DF5DECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AFBAA48F-F7DA-4E8B-8A94-B77C33B883C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63AC564B-2F02-4C6E-AFC2-EEE2F9D57572}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="563">
   <si>
     <t>Población según si tiene coche en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -95,1591 +95,1579 @@
     <t>11,19%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>Más de dos</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>Dos</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>Uno</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si tiene coche en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>Más de dos</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>Población según si tiene coche en 2016 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>Dos</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>Uno</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si tiene coche en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>Población según si tiene coche en 2015 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>23,15%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>21,2%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>67,71%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>69,88%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>Población según si tiene coche en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1697,9 +1685,6 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
@@ -1712,9 +1697,6 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,74%</t>
   </si>
   <si>
@@ -1725,9 +1707,6 @@
   </si>
   <si>
     <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
   </si>
   <si>
     <t>99,44%</t>
@@ -2160,7 +2139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F5B46E-3492-4E91-A6C1-6221125D3B2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EEC032-4D05-4C75-B306-129EB9DC2ADA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2697,7 +2676,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>71</v>
@@ -3005,10 +2984,10 @@
         <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3017,13 +2996,13 @@
         <v>661</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -3032,10 +3011,10 @@
         <v>3381</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>113</v>
@@ -3122,10 +3101,10 @@
         <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>243</v>
@@ -3134,13 +3113,13 @@
         <v>161994</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3175,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3214,37 +3193,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3238,13 @@
         <v>19260</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -3274,13 +3253,13 @@
         <v>20877</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -3289,13 +3268,13 @@
         <v>40138</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3289,13 @@
         <v>5929</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3325,13 +3304,13 @@
         <v>4064</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -3340,13 +3319,13 @@
         <v>9993</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3340,13 @@
         <v>60840</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -3376,13 +3355,13 @@
         <v>52348</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
@@ -3391,13 +3370,13 @@
         <v>113187</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3391,13 @@
         <v>120019</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>171</v>
@@ -3427,13 +3406,13 @@
         <v>116125</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>353</v>
@@ -3442,13 +3421,13 @@
         <v>236144</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,37 +3501,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3546,13 @@
         <v>65586</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>117</v>
@@ -3582,13 +3561,13 @@
         <v>77777</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>215</v>
@@ -3597,13 +3576,13 @@
         <v>143363</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3597,13 @@
         <v>15192</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3633,13 +3612,13 @@
         <v>7736</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -3648,13 +3627,13 @@
         <v>22928</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3648,13 @@
         <v>204794</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>291</v>
@@ -3684,13 +3663,13 @@
         <v>193634</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>597</v>
@@ -3699,13 +3678,13 @@
         <v>398427</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3699,13 @@
         <v>436464</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>595</v>
@@ -3735,13 +3714,13 @@
         <v>399919</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>1253</v>
@@ -3750,13 +3729,13 @@
         <v>836382</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3791,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99B4A95-EE9E-49EF-9897-F77EF0886EC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EA9E98-AE1E-491D-A325-EFE72EEF3D52}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3962,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3992,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3986,13 @@
         <v>11499</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -4022,13 +4001,13 @@
         <v>11248</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -4088,10 +4067,10 @@
         <v>4846</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>226</v>
@@ -4127,10 +4106,10 @@
         <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -4139,13 +4118,13 @@
         <v>92583</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4139,13 @@
         <v>79813</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
@@ -4175,13 +4154,13 @@
         <v>92763</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -4190,13 +4169,13 @@
         <v>172576</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4294,13 @@
         <v>23634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4330,13 +4309,13 @@
         <v>15172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4345,13 +4324,13 @@
         <v>38806</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4345,13 @@
         <v>3115</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4381,13 +4360,13 @@
         <v>2566</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -4396,13 +4375,13 @@
         <v>5681</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4396,13 @@
         <v>85598</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -4432,13 +4411,13 @@
         <v>62436</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -4447,13 +4426,13 @@
         <v>148034</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4447,13 @@
         <v>156645</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -4608,7 +4587,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4602,13 @@
         <v>14577</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4638,13 +4617,13 @@
         <v>13557</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -4653,13 +4632,13 @@
         <v>28134</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,7 +4653,7 @@
         <v>777</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
@@ -4707,10 +4686,10 @@
         <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4704,13 @@
         <v>51934</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4740,13 +4719,13 @@
         <v>47106</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -4755,13 +4734,13 @@
         <v>99040</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4755,13 @@
         <v>91283</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -4791,13 +4770,13 @@
         <v>90789</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -4806,13 +4785,13 @@
         <v>182072</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4847,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4886,37 +4865,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,10 +4943,10 @@
         <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,7 +4961,7 @@
         <v>8037</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>326</v>
@@ -5000,10 +4979,10 @@
         <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -5012,13 +4991,13 @@
         <v>11023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5012,13 @@
         <v>52625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -5048,13 +5027,13 @@
         <v>47875</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>146</v>
@@ -5063,13 +5042,13 @@
         <v>100501</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5063,13 @@
         <v>106037</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>149</v>
@@ -5099,13 +5078,13 @@
         <v>104791</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>306</v>
@@ -5114,13 +5093,13 @@
         <v>210828</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,37 +5173,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5218,13 @@
         <v>62966</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -5254,13 +5233,13 @@
         <v>54125</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M29" s="7">
         <v>157</v>
@@ -5269,7 +5248,7 @@
         <v>117091</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>142</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>357</v>
@@ -5293,10 +5272,10 @@
         <v>359</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5305,13 +5284,13 @@
         <v>11975</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -5326,7 +5305,7 @@
         <v>364</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>365</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5320,13 @@
         <v>240821</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H31" s="7">
         <v>294</v>
@@ -5356,13 +5335,13 @@
         <v>199335</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>644</v>
@@ -5371,13 +5350,13 @@
         <v>440156</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5371,13 @@
         <v>433777</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -5407,13 +5386,13 @@
         <v>443788</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M32" s="7">
         <v>1253</v>
@@ -5422,13 +5401,13 @@
         <v>877565</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,7 +5463,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3198E-83BF-44EC-B60A-ACA8AEF87B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728750AF-D871-4B9D-926E-CC061BE1324D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5521,7 +5500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5634,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5679,13 +5658,13 @@
         <v>11801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5694,13 +5673,13 @@
         <v>8542</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -5709,13 +5688,13 @@
         <v>20342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5709,13 @@
         <v>607</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5745,13 +5724,13 @@
         <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5760,13 +5739,13 @@
         <v>1143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5760,13 @@
         <v>27305</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5796,13 +5775,13 @@
         <v>29993</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>89</v>
@@ -5811,13 +5790,13 @@
         <v>57298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5811,13 @@
         <v>83763</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -5847,13 +5826,13 @@
         <v>91013</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>274</v>
@@ -5862,13 +5841,13 @@
         <v>174777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5936,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>411</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5972,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5966,13 @@
         <v>22917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -6002,13 +5981,13 @@
         <v>15240</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -6017,13 +5996,13 @@
         <v>38157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6017,13 @@
         <v>3352</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>145</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6053,13 +6032,13 @@
         <v>3512</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6068,13 +6047,13 @@
         <v>6864</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6068,13 @@
         <v>61337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -6104,13 +6083,13 @@
         <v>57399</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -6119,13 +6098,13 @@
         <v>118736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6119,13 @@
         <v>170454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -6155,13 +6134,13 @@
         <v>133684</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -6170,13 +6149,13 @@
         <v>304139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,7 +6229,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6265,7 +6244,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6280,7 +6259,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,10 +6277,10 @@
         <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -6310,13 +6289,13 @@
         <v>20141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -6325,13 +6304,13 @@
         <v>35975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6325,13 @@
         <v>3754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>459</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -6361,13 +6340,13 @@
         <v>8004</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -6376,13 +6355,13 @@
         <v>11758</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>465</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6376,13 @@
         <v>43998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -6412,13 +6391,13 @@
         <v>37769</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -6427,13 +6406,13 @@
         <v>81766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6427,13 @@
         <v>124987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -6463,13 +6442,13 @@
         <v>121359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M20" s="7">
         <v>352</v>
@@ -6478,13 +6457,13 @@
         <v>246346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,7 +6519,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6558,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6573,7 +6552,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6588,7 +6567,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6582,13 @@
         <v>12144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>481</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -6618,13 +6597,13 @@
         <v>11296</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -6633,13 +6612,13 @@
         <v>23440</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6633,13 @@
         <v>2856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>72</v>
+        <v>479</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6669,13 +6648,13 @@
         <v>3857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>316</v>
+        <v>489</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6687,10 +6666,10 @@
         <v>107</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6684,13 @@
         <v>34399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -6720,13 +6699,13 @@
         <v>36981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6735,13 +6714,13 @@
         <v>71380</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6735,13 @@
         <v>124650</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H26" s="7">
         <v>172</v>
@@ -6771,13 +6750,13 @@
         <v>121167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M26" s="7">
         <v>340</v>
@@ -6786,13 +6765,13 @@
         <v>245817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,37 +6845,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6890,13 @@
         <v>62695</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H29" s="7">
         <v>80</v>
@@ -6926,13 +6905,13 @@
         <v>55218</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>514</v>
       </c>
       <c r="M29" s="7">
         <v>166</v>
@@ -6941,13 +6920,13 @@
         <v>117914</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6941,13 @@
         <v>10569</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -6977,13 +6956,13 @@
         <v>15908</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>427</v>
+        <v>522</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -6992,13 +6971,13 @@
         <v>26477</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>530</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +6992,13 @@
         <v>167038</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H31" s="7">
         <v>250</v>
@@ -7028,13 +7007,13 @@
         <v>162141</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="M31" s="7">
         <v>493</v>
@@ -7043,13 +7022,13 @@
         <v>329180</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>339</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7043,13 @@
         <v>503855</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H32" s="7">
         <v>704</v>
@@ -7079,13 +7058,13 @@
         <v>467223</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>244</v>
+        <v>538</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M32" s="7">
         <v>1424</v>
@@ -7094,13 +7073,13 @@
         <v>971078</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,7 +7135,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7176,7 +7155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C646AF43-34D6-4DB1-8211-E0C2B1A15C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E42F78-8E7D-466A-A18C-1D55E0FC5B42}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7193,7 +7172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7300,10 +7279,10 @@
         <v>58503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>56</v>
@@ -7315,10 +7294,10 @@
         <v>57369</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>56</v>
@@ -7330,10 +7309,10 @@
         <v>115871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>56</v>
@@ -7357,7 +7336,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7372,7 +7351,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>552</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7387,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7423,7 +7402,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>552</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7438,7 +7417,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,7 +7438,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7474,7 +7453,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>552</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7489,7 +7468,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +7489,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7525,7 +7504,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>552</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7540,7 +7519,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,10 +7587,10 @@
         <v>175299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>56</v>
@@ -7623,10 +7602,10 @@
         <v>158765</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>56</v>
@@ -7638,10 +7617,10 @@
         <v>334063</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>56</v>
@@ -7665,7 +7644,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>557</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7680,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7695,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,7 +7695,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>557</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7731,7 +7710,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7746,7 +7725,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,7 +7746,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>557</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7782,7 +7761,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7797,7 +7776,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,7 +7797,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>557</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7833,7 +7812,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7848,7 +7827,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,10 +7895,10 @@
         <v>202478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>56</v>
@@ -7931,10 +7910,10 @@
         <v>176945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>56</v>
@@ -7946,10 +7925,10 @@
         <v>379424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>56</v>
@@ -7973,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7988,7 +7967,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8003,7 +7982,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,7 +8003,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8039,7 +8018,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>562</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8054,7 +8033,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8090,7 +8069,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8105,7 +8084,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,7 +8105,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8141,7 +8120,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>562</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8156,7 +8135,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,7 +8191,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8224,10 +8203,10 @@
         <v>289424</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>56</v>
@@ -8239,10 +8218,10 @@
         <v>260633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>56</v>
@@ -8254,10 +8233,10 @@
         <v>550057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>56</v>
@@ -8311,7 +8290,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,7 +8341,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,7 +8392,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8532,10 +8511,10 @@
         <v>725704</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>56</v>
@@ -8547,10 +8526,10 @@
         <v>653712</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>56</v>
@@ -8562,10 +8541,10 @@
         <v>1379416</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>56</v>
@@ -8589,7 +8568,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8604,7 +8583,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8619,7 +8598,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,7 +8619,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8655,7 +8634,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8670,7 +8649,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8691,7 +8670,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8706,7 +8685,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8721,7 +8700,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8742,7 +8721,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8757,7 +8736,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8772,7 +8751,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,7 +8807,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
